--- a/AAAGameData/DataTables/LevelTable.xlsx
+++ b/AAAGameData/DataTables/LevelTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GF_X\AAAGameData\DataTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unityProject\vehicle_gfx\AAAGameData\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -95,14 +95,15 @@
     <t>Level.DisplayName4</t>
   </si>
   <si>
-    <t>Level.DisplayName5</t>
-  </si>
-  <si>
     <t>关卡显示名(多语言)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>i18n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level.DisplayName5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -466,7 +467,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -526,7 +527,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -611,8 +612,12 @@
         <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D10" s="1"/>
+      <c r="G10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
